--- a/data/outputs/management_elsevier/46.xlsx
+++ b/data/outputs/management_elsevier/46.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS21"/>
+  <dimension ref="A1:BU21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -933,6 +943,12 @@
           <t>2-s2.0-84941272886</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>510</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1138,6 +1154,12 @@
           <t>2-s2.0-84942588293</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>526</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1343,6 +1365,12 @@
           <t>2-s2.0-84944457632</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>371</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1550,6 +1578,12 @@
           <t>2-s2.0-84944929983</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1709</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1751,6 +1785,12 @@
           <t>2-s2.0-84930202204</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>1785</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1952,6 +1992,12 @@
           <t>2-s2.0-84931266517</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>444</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2157,6 +2203,12 @@
           <t>2-s2.0-84937418129</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>4973</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2362,6 +2414,12 @@
           <t>2-s2.0-84952880017</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>1560</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2571,6 +2629,12 @@
           <t>2-s2.0-84923564524</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>650</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2776,6 +2840,12 @@
           <t>2-s2.0-84924258009</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>623</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2995,6 +3065,12 @@
           <t>2-s2.0-84925002584</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>955</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3204,6 +3280,12 @@
           <t>2-s2.0-84925633473</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>978</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3405,6 +3487,12 @@
           <t>2-s2.0-84925384614</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>553</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3606,6 +3694,12 @@
           <t>2-s2.0-84928636249</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>567</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3807,6 +3901,12 @@
           <t>2-s2.0-84928596082</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>301</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4008,6 +4108,12 @@
           <t>2-s2.0-84929311212</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>563</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4218,6 +4324,12 @@
         <is>
           <t>2-s2.0-85027936742</t>
         </is>
+      </c>
+      <c r="BT18" t="n">
+        <v>3703</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="19">
@@ -4412,6 +4524,12 @@
           <t>2-s2.0-85028151866</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>619</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4621,6 +4739,12 @@
           <t>2-s2.0-85027940472</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>1241</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4834,6 +4958,12 @@
           <t>2-s2.0-85027947275</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>972</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
